--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_12_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_12_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32947.05883093729</v>
+        <v>6556464.707356523</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32947.05883093729</v>
+        <v>6556464.707356523</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9917.195812098929</v>
+        <v>596804.7795193167</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9917.195812098929</v>
+        <v>596804.7795193167</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112590477.749181</v>
+        <v>45439716.60469202</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9994.288768271512</v>
+        <v>1065008.418025771</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19071.33520691972</v>
+        <v>1978056.772266902</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28148.38164556792</v>
+        <v>2891105.126508033</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37700.24728080058</v>
+        <v>3773776.698131786</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47252.11291603321</v>
+        <v>4656448.269755537</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56449.65848504925</v>
+        <v>5569518.202989741</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65647.09561691423</v>
+        <v>6482566.557230869</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74844.53274877918</v>
+        <v>7395614.911471997</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84230.57187178727</v>
+        <v>8278603.577106251</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>93638.1012501269</v>
+        <v>9165868.803551914</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>102857.0286373248</v>
+        <v>10083193.7186043</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>112054.4657691896</v>
+        <v>10996242.07284544</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>121251.9029010544</v>
+        <v>11909290.42708658</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>130803.660099136</v>
+        <v>12791940.41971726</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>140355.5257343686</v>
+        <v>13674611.99134102</v>
       </c>
     </row>
   </sheetData>
@@ -27037,19 +27037,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>74</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27150,16 +27150,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
